--- a/data/print_templates/B__packing_list_shipment__shipment.xlsx
+++ b/data/print_templates/B__packing_list_shipment__shipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/Desktop/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/asf-wms/data/print_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A5A62-0E20-BE4E-8222-3AD080F6A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F72C8F-E88E-1642-8F76-07B3EA4D1AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D41FDF60-E254-7C4C-BFC3-DDF9FE3B5742}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,6 +38,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
@@ -51,9 +73,6 @@
   </si>
   <si>
     <t>NOMBRE DE COLIS</t>
-  </si>
-  <si>
-    <t>FRANCE</t>
   </si>
   <si>
     <t>Dons humanitaires non destinés à être revendus - Produits non dangereux</t>
@@ -76,12 +95,15 @@
   <si>
     <t>DESTINATAIRE</t>
   </si>
+  <si>
+    <t>DONS fait en FRANCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +139,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,35 +176,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -189,12 +243,26 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Aptos"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -213,6 +281,155 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF1F497D"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF1F497D"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -231,6 +448,20 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -249,6 +480,20 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -261,44 +506,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF1F497D"/>
-        <name val="Aptos"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Aptos"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF1F497D"/>
         <name val="Aptos"/>
         <scheme val="none"/>
       </font>
@@ -336,84 +545,93 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1224039</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C56201C-C9CD-D6D3-36C2-6815F7A3DA09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="317500"/>
-          <a:ext cx="1706639" cy="1422400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86EF37FB-E506-1E4C-98B6-94A9E27D3858}" name="Tableau2" displayName="Tableau2" ref="A15:E25" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A15:E25" xr:uid="{86EF37FB-E506-1E4C-98B6-94A9E27D3858}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86EF37FB-E506-1E4C-98B6-94A9E27D3858}" name="Tableau2" displayName="Tableau2" ref="A12:E22" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A12:E22" xr:uid="{86EF37FB-E506-1E4C-98B6-94A9E27D3858}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54CAC0AE-8B46-D448-A075-A10313DB52BC}" name="COLIS N°"/>
-    <tableColumn id="2" xr3:uid="{BBFB573B-AD59-804B-B19E-5E817460BD0B}" name="FORME"/>
-    <tableColumn id="3" xr3:uid="{FBFF4320-0029-1F4A-80B8-9873748E956F}" name="PRODUIT"/>
-    <tableColumn id="4" xr3:uid="{6694315A-10C9-2A4F-9F6E-2A7012ED73F4}" name="QUANTITE"/>
-    <tableColumn id="5" xr3:uid="{3957F165-746F-D343-A9EF-25CE93FC4BC3}" name="DATE LIMITE"/>
+    <tableColumn id="1" xr3:uid="{54CAC0AE-8B46-D448-A075-A10313DB52BC}" name="COLIS N°" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BBFB573B-AD59-804B-B19E-5E817460BD0B}" name="FORME" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FBFF4320-0029-1F4A-80B8-9873748E956F}" name="PRODUIT" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{6694315A-10C9-2A4F-9F6E-2A7012ED73F4}" name="QUANTITE" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3957F165-746F-D343-A9EF-25CE93FC4BC3}" name="DATE LIMITE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2FC5B0B-81A3-7340-86EB-1B51672D75B6}" name="Tableau3" displayName="Tableau3" ref="A11:E12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A11:E12" xr:uid="{A2FC5B0B-81A3-7340-86EB-1B51672D75B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2FC5B0B-81A3-7340-86EB-1B51672D75B6}" name="Tableau3" displayName="Tableau3" ref="A8:E9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="7">
+  <autoFilter ref="A8:E9" xr:uid="{A2FC5B0B-81A3-7340-86EB-1B51672D75B6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E35141A4-9B40-BB49-A0ED-D3E8753F2B81}" name="N° DE LOT" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B7C97902-2DD4-774D-A014-E20027884A92}" name="NOMBRE DE COLIS" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E8CB8828-A0E5-8D4A-9866-36313FB5EFA1}" name="ESCALE" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F557127E-D325-654A-BE09-328E1D31C14A}" name="DESTINATAIRE" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{10461B48-46E8-9146-88F8-32E8CA3832C0}" name="ORIGINE DES PRODUITS" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E35141A4-9B40-BB49-A0ED-D3E8753F2B81}" name="N° DE LOT" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B7C97902-2DD4-774D-A014-E20027884A92}" name="NOMBRE DE COLIS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E8CB8828-A0E5-8D4A-9866-36313FB5EFA1}" name="ESCALE" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F557127E-D325-654A-BE09-328E1D31C14A}" name="DESTINATAIRE" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{10461B48-46E8-9146-88F8-32E8CA3832C0}" name="ORIGINE DES PRODUITS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -736,84 +954,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF51C3FB-7A83-BF41-B717-28B03D752EA9}">
-  <dimension ref="A11:E15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="23.1640625" customWidth="1"/>
     <col min="6" max="6" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:E13"/>
+  <mergeCells count="2">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A2:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="11" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/print_templates/B__packing_list_shipment__shipment.xlsx
+++ b/data/print_templates/B__packing_list_shipment__shipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdouardGonnu/asf-wms/data/print_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F72C8F-E88E-1642-8F76-07B3EA4D1AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37CC2F-B8AB-9C47-829F-A58AB59983B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D41FDF60-E254-7C4C-BFC3-DDF9FE3B5742}"/>
   </bookViews>
@@ -36,28 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -209,23 +187,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,109 +275,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF1F497D"/>
-        <name val="Aptos"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -506,12 +381,115 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF1F497D"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Aptos"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -545,91 +523,82 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>192534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F5A5F4-990E-0D00-E8CE-0986E50814ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717800" y="215900"/>
+          <a:ext cx="3225800" cy="992634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86EF37FB-E506-1E4C-98B6-94A9E27D3858}" name="Tableau2" displayName="Tableau2" ref="A12:E22" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A12:E22" xr:uid="{86EF37FB-E506-1E4C-98B6-94A9E27D3858}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54CAC0AE-8B46-D448-A075-A10313DB52BC}" name="COLIS N°" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{BBFB573B-AD59-804B-B19E-5E817460BD0B}" name="FORME" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FBFF4320-0029-1F4A-80B8-9873748E956F}" name="PRODUIT" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{6694315A-10C9-2A4F-9F6E-2A7012ED73F4}" name="QUANTITE" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{3957F165-746F-D343-A9EF-25CE93FC4BC3}" name="DATE LIMITE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{54CAC0AE-8B46-D448-A075-A10313DB52BC}" name="COLIS N°" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BBFB573B-AD59-804B-B19E-5E817460BD0B}" name="FORME" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FBFF4320-0029-1F4A-80B8-9873748E956F}" name="PRODUIT" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6694315A-10C9-2A4F-9F6E-2A7012ED73F4}" name="QUANTITE" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{3957F165-746F-D343-A9EF-25CE93FC4BC3}" name="DATE LIMITE" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2FC5B0B-81A3-7340-86EB-1B51672D75B6}" name="Tableau3" displayName="Tableau3" ref="A8:E9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2FC5B0B-81A3-7340-86EB-1B51672D75B6}" name="Tableau3" displayName="Tableau3" ref="A8:E9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A8:E9" xr:uid="{A2FC5B0B-81A3-7340-86EB-1B51672D75B6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E35141A4-9B40-BB49-A0ED-D3E8753F2B81}" name="N° DE LOT" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B7C97902-2DD4-774D-A014-E20027884A92}" name="NOMBRE DE COLIS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E8CB8828-A0E5-8D4A-9866-36313FB5EFA1}" name="ESCALE" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E35141A4-9B40-BB49-A0ED-D3E8753F2B81}" name="N° DE LOT" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B7C97902-2DD4-774D-A014-E20027884A92}" name="NOMBRE DE COLIS" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E8CB8828-A0E5-8D4A-9866-36313FB5EFA1}" name="ESCALE" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{F557127E-D325-654A-BE09-328E1D31C14A}" name="DESTINATAIRE" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{10461B48-46E8-9146-88F8-32E8CA3832C0}" name="ORIGINE DES PRODUITS" dataDxfId="0"/>
   </tableColumns>
@@ -960,7 +929,7 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,41 +939,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1028,18 +995,18 @@
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1059,74 +1026,74 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1135,9 +1102,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>